--- a/log.xlsx
+++ b/log.xlsx
@@ -40249,7 +40249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -40582,6 +40582,46 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-01-2021</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15:21:10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.8500000238418579</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.8465276956558228</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8493951559066772</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Modelcatebuzon</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
